--- a/data/trans_dic/P22_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02167603642969669</v>
+        <v>0.02253262065757243</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02128015791831838</v>
+        <v>0.02014523655776701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008692174442005138</v>
+        <v>0.007870948283281385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02789598114671334</v>
+        <v>0.02774200883818631</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01376313830872062</v>
+        <v>0.01383960468874303</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01730941180712394</v>
+        <v>0.01751685125646862</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01288281714136355</v>
+        <v>0.01327675893138443</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03756754329935408</v>
+        <v>0.03698786106682022</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02066466477335354</v>
+        <v>0.02089253254535225</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0222500175414962</v>
+        <v>0.02245408995208658</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01305591125776973</v>
+        <v>0.01339207046733676</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03527967685239913</v>
+        <v>0.03639766048529435</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05092347764527437</v>
+        <v>0.05087993421770085</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04940427649908927</v>
+        <v>0.04809309748560819</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03253238148186272</v>
+        <v>0.03073280510244535</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06134407312534284</v>
+        <v>0.05698104898470017</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03672084405592474</v>
+        <v>0.03795721109306482</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04234786753089773</v>
+        <v>0.04226865416286698</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0358838332647415</v>
+        <v>0.03805796659344374</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06402689221106718</v>
+        <v>0.06385822133030435</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04012676196444568</v>
+        <v>0.03837414264633172</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04204898006268788</v>
+        <v>0.04125810510138598</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02882706952448528</v>
+        <v>0.02966453071022975</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05605343032188372</v>
+        <v>0.05775084442467187</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.04609917963528917</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08345396403234004</v>
+        <v>0.08345396403234003</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.050050351108653</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04433335747314531</v>
+        <v>0.04440162901062848</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02966430104555853</v>
+        <v>0.02960967027124248</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02465858703284555</v>
+        <v>0.02544163433621478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07133659405152781</v>
+        <v>0.0721460446814281</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02863678189134597</v>
+        <v>0.02904670590574015</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02553120140112091</v>
+        <v>0.02607558763950338</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03286150255111264</v>
+        <v>0.0337920734862038</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06821673963003652</v>
+        <v>0.07059818807773442</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04076153094179906</v>
+        <v>0.04078628364764172</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03104949980190021</v>
+        <v>0.03034236426907018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03187152964562904</v>
+        <v>0.03210991347973054</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07568416870595139</v>
+        <v>0.07605801189089068</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07592168539049801</v>
+        <v>0.07844135444747988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05500912629767064</v>
+        <v>0.05513673605123163</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04973037706321146</v>
+        <v>0.05074093618024889</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1176924799637868</v>
+        <v>0.1190116272866976</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05613007013671143</v>
+        <v>0.05575925988451447</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04839235542751723</v>
+        <v>0.04966256414521421</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06112003598610066</v>
+        <v>0.06164150282089285</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09963560642034959</v>
+        <v>0.1000494617001293</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06110785200602862</v>
+        <v>0.06095606710619038</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04816124394100916</v>
+        <v>0.04830761647975675</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05179170788760937</v>
+        <v>0.05080063407542942</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1015666137965053</v>
+        <v>0.1029883213353074</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.02654885730302913</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1141534081896472</v>
+        <v>0.1141534081896473</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06459309290348988</v>
+        <v>0.06398469970497898</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03841597934733056</v>
+        <v>0.03757448291040588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01633806849237507</v>
+        <v>0.01661854246702192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08218893556609067</v>
+        <v>0.08486453754480866</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04465027871450386</v>
+        <v>0.04472034408631845</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02446856025655447</v>
+        <v>0.02463699763716257</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01722262088497523</v>
+        <v>0.01637579338799926</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1031561274155222</v>
+        <v>0.1030627231125019</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05898561844841527</v>
+        <v>0.06064204150656292</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03476786821985477</v>
+        <v>0.03507043939641504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01910838376281072</v>
+        <v>0.01868582564293696</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1004692158484082</v>
+        <v>0.09981652088696499</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1112436668708617</v>
+        <v>0.1088569032347728</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07376134663473426</v>
+        <v>0.07409763761837306</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0404235969475807</v>
+        <v>0.04054705380762556</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1272257593387928</v>
+        <v>0.1315575227021603</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08197746912953369</v>
+        <v>0.08149768578872933</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05358625477858755</v>
+        <v>0.0554447209348814</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03919689521162527</v>
+        <v>0.03978555928700703</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1456784951861442</v>
+        <v>0.1494651340343758</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08974091323484532</v>
+        <v>0.08927038999489986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05855640583427497</v>
+        <v>0.0590318742161019</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.035269392478703</v>
+        <v>0.03535335378115397</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1310253570006878</v>
+        <v>0.132289414144914</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06585293512575006</v>
+        <v>0.06796884507706644</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04192911228809292</v>
+        <v>0.04118782499638414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0417419807515532</v>
+        <v>0.04267789570747474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1179304931118286</v>
+        <v>0.1164494168018109</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05810605730619305</v>
+        <v>0.05900667388652415</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04397178299506114</v>
+        <v>0.04577090788415473</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05288306281927628</v>
+        <v>0.05168875228646611</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1302179803711308</v>
+        <v>0.1310374695766791</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06697080016185855</v>
+        <v>0.06717535817320391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04779801764040987</v>
+        <v>0.0474073970764853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05126937801774098</v>
+        <v>0.0522347427729233</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1301377375303657</v>
+        <v>0.1293183055268314</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1019966028943155</v>
+        <v>0.102092029630688</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07392350905089759</v>
+        <v>0.07307813929499195</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07279001098963084</v>
+        <v>0.07358521606039455</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.163129874314079</v>
+        <v>0.1616727970196409</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09120122460752474</v>
+        <v>0.09229869188794299</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07421789936131179</v>
+        <v>0.07574420864229854</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08383624169054683</v>
+        <v>0.0861455073714622</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1678359121554575</v>
+        <v>0.1690628869462046</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09050516727403253</v>
+        <v>0.09105372812413168</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06954237241723095</v>
+        <v>0.06932443087525637</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07349439848577537</v>
+        <v>0.07363543436625125</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1576229225705222</v>
+        <v>0.1572127287187726</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0572652960795984</v>
+        <v>0.05792459388754227</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03887494816695725</v>
+        <v>0.03867836304736937</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02989264323815752</v>
+        <v>0.02984100335406962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08764159241437497</v>
+        <v>0.08687208256015291</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0445786863457087</v>
+        <v>0.0447481572945548</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03563517804551721</v>
+        <v>0.03558986943387049</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03601069197257735</v>
+        <v>0.03656328593503212</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09613915781541785</v>
+        <v>0.09678792426880536</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05313381621879094</v>
+        <v>0.05351136389692574</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03919390540770182</v>
+        <v>0.03922843863669839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03445598614229694</v>
+        <v>0.03501396697984251</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09442724609569607</v>
+        <v>0.09457583715678379</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07456558338251881</v>
+        <v>0.07476471847284798</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05336189745868819</v>
+        <v>0.05378243047157579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04308100038530849</v>
+        <v>0.04293953625114672</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1095797820433328</v>
+        <v>0.1104252881558809</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06109015424158237</v>
+        <v>0.06093849432239743</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04958403618474268</v>
+        <v>0.04962583180756835</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05050615515471463</v>
+        <v>0.05075870088730332</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1136152795117236</v>
+        <v>0.1145618996630344</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06497812125735823</v>
+        <v>0.06526888824248757</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04966805321172874</v>
+        <v>0.04949602102983668</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0443372628375519</v>
+        <v>0.04465625449228621</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.108635376093873</v>
+        <v>0.1092147537039077</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14997</v>
+        <v>15589</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14970</v>
+        <v>14172</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5855</v>
+        <v>5302</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19268</v>
+        <v>19162</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9462</v>
+        <v>9515</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12066</v>
+        <v>12210</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8668</v>
+        <v>8933</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27581</v>
+        <v>27156</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>28504</v>
+        <v>28818</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>31162</v>
+        <v>31447</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17579</v>
+        <v>18032</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>50270</v>
+        <v>51863</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35232</v>
+        <v>35202</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34754</v>
+        <v>33832</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21915</v>
+        <v>20703</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42371</v>
+        <v>39357</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25246</v>
+        <v>26096</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29519</v>
+        <v>29463</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24144</v>
+        <v>25607</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47007</v>
+        <v>46883</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>55349</v>
+        <v>52932</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>58890</v>
+        <v>57783</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>38815</v>
+        <v>39942</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>79870</v>
+        <v>82289</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>42595</v>
+        <v>42661</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30168</v>
+        <v>30112</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25189</v>
+        <v>25989</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>74826</v>
+        <v>75675</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27732</v>
+        <v>28129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26353</v>
+        <v>26915</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>34209</v>
+        <v>35178</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>73092</v>
+        <v>75644</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>78637</v>
+        <v>78685</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>63625</v>
+        <v>62176</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>65735</v>
+        <v>66227</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>160480</v>
+        <v>161273</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>72945</v>
+        <v>75366</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55942</v>
+        <v>56072</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>50799</v>
+        <v>51832</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>123450</v>
+        <v>124833</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>54356</v>
+        <v>53997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49950</v>
+        <v>51261</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>63626</v>
+        <v>64169</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>106757</v>
+        <v>107200</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>117889</v>
+        <v>117596</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>98690</v>
+        <v>98990</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>106821</v>
+        <v>104776</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>215361</v>
+        <v>218376</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>43767</v>
+        <v>43355</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29105</v>
+        <v>28467</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12379</v>
+        <v>12592</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>66004</v>
+        <v>68152</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>30534</v>
+        <v>30582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19016</v>
+        <v>19147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13453</v>
+        <v>12791</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>83789</v>
+        <v>83714</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>80304</v>
+        <v>82559</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>53362</v>
+        <v>53826</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29404</v>
+        <v>28754</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>162291</v>
+        <v>161237</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>75377</v>
+        <v>73759</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>55883</v>
+        <v>56138</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30629</v>
+        <v>30723</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>102172</v>
+        <v>105650</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>56060</v>
+        <v>55731</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41646</v>
+        <v>43090</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>30617</v>
+        <v>31077</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>118329</v>
+        <v>121404</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>122175</v>
+        <v>121535</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>89872</v>
+        <v>90602</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>54273</v>
+        <v>54402</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>211649</v>
+        <v>213691</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>61895</v>
+        <v>63884</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>39738</v>
+        <v>39035</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>39096</v>
+        <v>39972</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>116758</v>
+        <v>115292</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>60281</v>
+        <v>61215</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>46254</v>
+        <v>48146</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>55198</v>
+        <v>53952</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>145486</v>
+        <v>146402</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>132423</v>
+        <v>132828</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>95579</v>
+        <v>94798</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>101533</v>
+        <v>103445</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>274241</v>
+        <v>272514</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>95867</v>
+        <v>95956</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>70060</v>
+        <v>69259</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>68175</v>
+        <v>68920</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>161509</v>
+        <v>160066</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>94615</v>
+        <v>95754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>78070</v>
+        <v>79675</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>87507</v>
+        <v>89917</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>187515</v>
+        <v>188886</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>178959</v>
+        <v>180043</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>139060</v>
+        <v>138624</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>145547</v>
+        <v>145826</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>332161</v>
+        <v>331297</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>187265</v>
+        <v>189421</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>133178</v>
+        <v>132504</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>101319</v>
+        <v>101144</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>309617</v>
+        <v>306898</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>150550</v>
+        <v>151122</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>126801</v>
+        <v>126640</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>127432</v>
+        <v>129388</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>359096</v>
+        <v>361519</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>353197</v>
+        <v>355706</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>273734</v>
+        <v>273976</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>238717</v>
+        <v>242583</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>686290</v>
+        <v>687370</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>243840</v>
+        <v>244491</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>182807</v>
+        <v>184248</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>146020</v>
+        <v>145541</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>387119</v>
+        <v>390106</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>206312</v>
+        <v>205800</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>176435</v>
+        <v>176584</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>178728</v>
+        <v>179622</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>424372</v>
+        <v>427908</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>431929</v>
+        <v>433862</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>346887</v>
+        <v>345686</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>307176</v>
+        <v>309386</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>789554</v>
+        <v>793765</v>
       </c>
     </row>
     <row r="24">
